--- a/new老婆生日名古屋2020.xlsx
+++ b/new老婆生日名古屋2020.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1210PKAN\Documents\GitHub\boshk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="General" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Day1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Day2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Restaurant" sheetId="4" r:id="rId7"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Day1" sheetId="2" r:id="rId2"/>
+    <sheet name="Day2" sheetId="3" r:id="rId3"/>
+    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>名古屋</t>
   </si>
@@ -152,47 +160,58 @@
   </si>
   <si>
     <t>https://hk.wamazing.com/snow/articles/301</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +219,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,62 +229,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -276,11 +284,11 @@
     <xdr:ext cx="4962525" cy="2124075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
+        <xdr:cNvPr id="2" name="image1.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -297,8 +305,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -309,11 +317,11 @@
     <xdr:ext cx="9363075" cy="5276850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
+        <xdr:cNvPr id="2" name="image3.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -330,8 +338,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -342,11 +350,11 @@
     <xdr:ext cx="6362700" cy="5876925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
+        <xdr:cNvPr id="2" name="image2.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -370,11 +378,11 @@
     <xdr:ext cx="6391275" cy="6238875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
+        <xdr:cNvPr id="3" name="image4.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -392,7 +400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -582,54 +590,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="13.29"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="13" width="9.43"/>
-    <col customWidth="1" min="15" max="15" width="12.29"/>
-    <col customWidth="1" min="17" max="17" width="4.86"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="13" width="9.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="B1" s="1">
-        <v>43879.0</v>
+        <v>43879</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
-        <v>43880.0</v>
+        <v>43880</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1">
-        <v>43881.0</v>
+        <v>43881</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1">
-        <v>43882.0</v>
+        <v>43882</v>
       </c>
       <c r="K1" s="1">
-        <v>43883.0</v>
+        <v>43883</v>
       </c>
       <c r="L1" s="1">
-        <v>43884.0</v>
+        <v>43884</v>
       </c>
       <c r="M1" s="1">
-        <v>43885.0</v>
+        <v>43885</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>0</v>
@@ -638,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -671,15 +684,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="4">
-        <v>0.6284722222222222</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5">
-        <v>0.4013888888888889</v>
+        <v>0.40138888888888891</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -709,9 +722,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="4">
-        <v>0.6506944444444445</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -742,15 +755,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="4">
-        <v>0.6701388888888888</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0.4222222222222222</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>27</v>
@@ -766,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>0.7</v>
       </c>
@@ -777,14 +790,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
-        <v>0.5138888888888888</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
@@ -793,9 +806,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="4">
-        <v>0.8076388888888889</v>
+        <v>0.80763888888888891</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -811,7 +824,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -820,7 +833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
@@ -835,10 +848,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <v>0.7569444444444444</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>36</v>
@@ -847,17 +860,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
       <c r="O10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="O11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="O14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
@@ -878,21 +896,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -902,23 +921,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -926,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
@@ -936,23 +957,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>